--- a/Source/Excel/config.xlsx
+++ b/Source/Excel/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B37A17-8F03-4A14-8538-CC5C52EBD6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10488AD-BC76-471C-A0DD-85FE1AB9A58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31785" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>C</t>
   </si>
@@ -69,23 +69,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -481,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -497,13 +481,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -511,41 +492,32 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -555,11 +527,8 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,13 +536,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -583,11 +549,8 @@
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -595,13 +558,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -611,11 +571,8 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -623,13 +580,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -639,11 +593,8 @@
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -651,10 +602,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Excel/config.xlsx
+++ b/Source/Excel/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Game\Source\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10488AD-BC76-471C-A0DD-85FE1AB9A58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84F7F31-39B1-44E9-9D1C-7D3E3A7E7681}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31785" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="18">
   <si>
     <t>C</t>
   </si>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,31 +114,37 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,27 +152,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="60% - 着色 1" xfId="2" builtinId="32"/>
+    <cellStyle name="标题 1" xfId="1" builtinId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,12 +501,12 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -484,14 +517,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Source/Excel/config.xlsx
+++ b/Source/Excel/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84F7F31-39B1-44E9-9D1C-7D3E3A7E7681}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D9AE03-5622-40B4-9A25-3B5443F3DF7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31785" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>C</t>
   </si>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,6 +78,18 @@
   </si>
   <si>
     <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -514,70 +522,70 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="5" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -585,21 +593,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -607,21 +615,21 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -629,13 +637,24 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
